--- a/microblog/app/static/Uploads/data.xlsx
+++ b/microblog/app/static/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="524">
   <si>
     <t>Name</t>
   </si>
@@ -1689,6 +1689,15 @@
   <si>
     <t>Sanblaze</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>OB-D1075</t>
+  </si>
+  <si>
+    <t>172.99.13.50-60</t>
+  </si>
+  <si>
+    <t>10.109.52.137/p5</t>
   </si>
 </sst>
 </file>
@@ -3572,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -4584,10 +4593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4875,7 +4884,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -4896,52 +4905,6 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>123</v>
-      </c>
-      <c r="B14">
-        <v>123</v>
-      </c>
-      <c r="C14">
-        <v>123</v>
-      </c>
-      <c r="D14">
-        <v>123</v>
-      </c>
-      <c r="E14">
-        <v>123</v>
-      </c>
-      <c r="F14">
-        <v>123</v>
-      </c>
-      <c r="G14">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>124</v>
-      </c>
-      <c r="C15">
-        <v>124</v>
-      </c>
-      <c r="D15">
-        <v>124</v>
-      </c>
-      <c r="E15">
-        <v>124</v>
-      </c>
-      <c r="F15">
-        <v>124</v>
-      </c>
-      <c r="G15">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4957,6 +4920,7 @@
     <hyperlink ref="G12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5254,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5424,6 +5388,32 @@
         <v>519</v>
       </c>
       <c r="H6" s="48" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>520</v>
       </c>
     </row>

--- a/microblog/app/static/Uploads/data.xlsx
+++ b/microblog/app/static/Uploads/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="523">
   <si>
     <t>Name</t>
   </si>
@@ -1146,7 +1146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1188,7 +1188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,7 +1209,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,7 +1269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1691,24 +1691,21 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>OB-D1075</t>
-  </si>
-  <si>
-    <t>172.99.13.50-60</t>
-  </si>
-  <si>
-    <t>10.109.52.137/p5</t>
+    <t>DDDD</t>
+  </si>
+  <si>
+    <t>DDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1723,21 +1720,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1752,7 +1749,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1792,7 +1789,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1810,7 +1807,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2180,8 +2177,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2211,7 +2208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2253,7 +2250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,26 +2283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2338,23 +2318,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2537,12 +2500,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2676,7 +2639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2708,7 +2671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2746,7 +2709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +2785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2860,7 +2823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2898,7 +2861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2936,7 +2899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2974,7 +2937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -3012,7 +2975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -3050,7 +3013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -3088,7 +3051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -3126,7 +3089,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -3164,7 +3127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3202,7 +3165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -3240,7 +3203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -3278,7 +3241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -3316,7 +3279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -3342,7 +3305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>162</v>
       </c>
@@ -3368,7 +3331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -3394,7 +3357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -3420,7 +3383,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>177</v>
       </c>
@@ -3452,7 +3415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>182</v>
       </c>
@@ -3486,7 +3449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -3520,7 +3483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>192</v>
       </c>
@@ -3567,7 +3530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
@@ -3579,21 +3542,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -3627,7 +3590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -3641,7 +3604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -3658,7 +3621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -3672,7 +3635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -3686,7 +3649,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -3703,7 +3666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -3717,7 +3680,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -3734,7 +3697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -3751,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3765,7 +3728,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -3782,7 +3745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -3799,7 +3762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -3816,7 +3779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -3833,7 +3796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -3847,7 +3810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -3864,7 +3827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -3881,7 +3844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -3895,7 +3858,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>241</v>
       </c>
@@ -3909,7 +3872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>243</v>
       </c>
@@ -3926,7 +3889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>245</v>
       </c>
@@ -3943,7 +3906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -3960,7 +3923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -3977,7 +3940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>251</v>
       </c>
@@ -3991,7 +3954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -4005,7 +3968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -4022,7 +3985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -4039,7 +4002,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>260</v>
       </c>
@@ -4056,7 +4019,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>262</v>
       </c>
@@ -4073,7 +4036,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>264</v>
       </c>
@@ -4090,7 +4053,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>266</v>
       </c>
@@ -4107,7 +4070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -4121,7 +4084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>270</v>
       </c>
@@ -4135,7 +4098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -4152,7 +4115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -4169,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>276</v>
       </c>
@@ -4186,7 +4149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -4203,7 +4166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>280</v>
       </c>
@@ -4220,7 +4183,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -4237,7 +4200,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>284</v>
       </c>
@@ -4254,7 +4217,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>286</v>
       </c>
@@ -4271,7 +4234,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>288</v>
       </c>
@@ -4288,7 +4251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>290</v>
       </c>
@@ -4305,7 +4268,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>292</v>
       </c>
@@ -4319,7 +4282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -4336,7 +4299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>296</v>
       </c>
@@ -4353,7 +4316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -4370,7 +4333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -4387,7 +4350,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -4404,7 +4367,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>304</v>
       </c>
@@ -4421,7 +4384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>306</v>
       </c>
@@ -4438,7 +4401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>308</v>
       </c>
@@ -4455,7 +4418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -4472,7 +4435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -4483,7 +4446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -4500,7 +4463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>315</v>
       </c>
@@ -4517,7 +4480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>317</v>
       </c>
@@ -4534,7 +4497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>319</v>
       </c>
@@ -4551,7 +4514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>321</v>
       </c>
@@ -4568,7 +4531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>323</v>
       </c>
@@ -4583,6 +4546,23 @@
       </c>
       <c r="E61" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62" t="s">
+        <v>522</v>
+      </c>
+      <c r="C62" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" t="s">
+        <v>522</v>
+      </c>
+      <c r="E62" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4599,16 +4579,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4611,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>331</v>
       </c>
@@ -4654,7 +4634,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>409</v>
       </c>
@@ -4677,7 +4657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>412</v>
       </c>
@@ -4700,7 +4680,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>417</v>
       </c>
@@ -4723,7 +4703,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>341</v>
       </c>
@@ -4746,7 +4726,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>421</v>
       </c>
@@ -4769,7 +4749,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>422</v>
       </c>
@@ -4792,7 +4772,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>346</v>
       </c>
@@ -4815,7 +4795,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>218</v>
       </c>
@@ -4838,7 +4818,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>214</v>
       </c>
@@ -4861,7 +4841,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>428</v>
       </c>
@@ -4884,7 +4864,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -4932,16 +4912,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>350</v>
       </c>
@@ -4964,7 +4944,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +4967,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5010,7 +4990,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5033,7 +5013,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5056,7 +5036,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -5079,7 +5059,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5102,7 +5082,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
@@ -5125,7 +5105,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>192</v>
       </c>
@@ -5148,7 +5128,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>386</v>
       </c>
@@ -5165,7 +5145,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
@@ -5184,7 +5164,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -5207,7 +5187,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="F16" s="9"/>
     </row>
   </sheetData>
@@ -5218,24 +5198,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>392</v>
       </c>
@@ -5261,7 +5241,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -5287,7 +5267,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>398</v>
       </c>
@@ -5313,7 +5293,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -5339,7 +5319,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>53</v>
       </c>
@@ -5365,7 +5345,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>405</v>
       </c>
@@ -5388,32 +5368,6 @@
         <v>519</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="48" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5464,12 +5418,12 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="22" t="s">
         <v>432</v>
       </c>
@@ -5495,7 +5449,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -5521,7 +5475,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -5547,7 +5501,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="28">
         <v>7</v>
       </c>
@@ -5592,16 +5546,16 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="31" t="s">
         <v>446</v>
       </c>
@@ -5621,7 +5575,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="31" t="s">
         <v>450</v>
       </c>
@@ -5641,7 +5595,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
         <v>454</v>
       </c>
@@ -5659,7 +5613,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="31" t="s">
         <v>458</v>
       </c>
@@ -5673,7 +5627,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
         <v>461</v>
       </c>
@@ -5689,7 +5643,7 @@
       <c r="E5" s="32"/>
       <c r="F5" s="33"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
         <v>465</v>
       </c>
@@ -5703,7 +5657,7 @@
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
         <v>466</v>
       </c>
@@ -5717,7 +5671,7 @@
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
         <v>469</v>
       </c>
@@ -5731,7 +5685,7 @@
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
         <v>472</v>
       </c>
@@ -5741,7 +5695,7 @@
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
         <v>473</v>
       </c>
@@ -5751,7 +5705,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="31" t="s">
         <v>474</v>
       </c>
@@ -5767,7 +5721,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="38" t="s">
         <v>466</v>
       </c>
@@ -5795,16 +5749,16 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="134.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>446</v>
       </c>
@@ -5821,7 +5775,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>479</v>
       </c>
@@ -5835,7 +5789,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>481</v>
       </c>
@@ -5849,7 +5803,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>484</v>
       </c>
@@ -5866,7 +5820,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>486</v>
       </c>
@@ -5877,7 +5831,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>489</v>
       </c>
@@ -5885,7 +5839,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>491</v>
       </c>
@@ -5893,7 +5847,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>493</v>
       </c>
@@ -5901,7 +5855,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>495</v>
       </c>
@@ -5929,15 +5883,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="45" t="s">
         <v>392</v>
       </c>
@@ -5951,7 +5905,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="45" t="s">
         <v>53</v>
       </c>
@@ -5965,7 +5919,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="45" t="s">
         <v>134</v>
       </c>
@@ -5979,7 +5933,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="45" t="s">
         <v>141</v>
       </c>
@@ -5991,7 +5945,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="45" t="s">
         <v>42</v>
       </c>
@@ -6003,7 +5957,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="45" t="s">
         <v>31</v>
       </c>
@@ -6015,7 +5969,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="45" t="s">
         <v>37</v>
       </c>
@@ -6027,7 +5981,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="45" t="s">
         <v>148</v>
       </c>
@@ -6039,7 +5993,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="45" t="s">
         <v>58</v>
       </c>
@@ -6051,7 +6005,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="45" t="s">
         <v>81</v>
       </c>
@@ -6063,7 +6017,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="45" t="s">
         <v>89</v>
       </c>
@@ -6075,7 +6029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
@@ -6087,7 +6041,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
@@ -6099,7 +6053,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="45" t="s">
         <v>112</v>
       </c>
@@ -6111,7 +6065,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="45" t="s">
         <v>119</v>
       </c>
@@ -6123,7 +6077,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="45" t="s">
         <v>127</v>
       </c>

--- a/microblog/app/static/Uploads/data.xlsx
+++ b/microblog/app/static/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,97 @@
     <sheet name="Daily tool" sheetId="8" r:id="rId8"/>
     <sheet name="Special setup" sheetId="9" r:id="rId9"/>
     <sheet name="Standard TB" sheetId="11" r:id="rId10"/>
+    <sheet name="Default configuration" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of CIFS shares per FS: 300</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of home directories supported: 20000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+huser1-huser10 are created already in both ncc2k8 and dur domain;
+luser1-luser20000 are created already in both ncc2k8 and dur domain</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="626">
   <si>
     <t>Name</t>
   </si>
@@ -1693,12 +1777,1167 @@
   <si>
     <t>10.109.104.54-55</t>
   </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>Lab/Testbed</t>
+  </si>
+  <si>
+    <t>DURHAM_AFA</t>
+  </si>
+  <si>
+    <t>DURHAM_Hybrid</t>
+  </si>
+  <si>
+    <t>Configuration name</t>
+  </si>
+  <si>
+    <t>DM-Default</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Default configuration for all flash Oberon arrays(refer to Leo's arrangement)</t>
+  </si>
+  <si>
+    <t>Default configuration for hybrid Oberon arrays(refer to Leo's arrangement)</t>
+  </si>
+  <si>
+    <t>Mgmt IP</t>
+  </si>
+  <si>
+    <t>Get from DHCP</t>
+  </si>
+  <si>
+    <t>Admin Account</t>
+  </si>
+  <si>
+    <t>administrator/Password123!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Default Parameter DNS=Public &gt;
+Public
+IPv4
+10.109.254.10
+10.109.254.14
+IPv6
+2620:0:170:75fe::10
+2620:0:170:75fe::14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Private: 
+IPV4: 10.109.82.101</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Default Parameter DNS=Public &gt;
+Public
+IPv4
+10.109.254.10
+10.109.254.14
+IPv6
+2620:0:170:75fe::10
+2620:0:170:75fe::14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Private: 
+IPV4: 10.109.82.101</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Default Parameter NTP=Public &gt;
+Pbulic: 
+IPv4
+10.109.254.10
+IPv6
+2620:0:170:75fe::10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Private:
+IPV4: 10.109.82.101 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Default Parameter NTP=Public &gt;
+Public: 
+IPv4
+10.109.254.10
+IPv6
+2620:0:170:75fe::10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Private:
+IPV4: 10.109.82.101 </t>
+    </r>
+  </si>
+  <si>
+    <t>ESRS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Connect EMC</t>
+  </si>
+  <si>
+    <t>Snapshot schedule</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Active all features</t>
+  </si>
+  <si>
+    <t>IP routes</t>
+  </si>
+  <si>
+    <t>ASR configuration: 
+1. Add host ASR via the paramters in testbed
+2. Add net ASR via the paramters in testbed
+3. Enable Package reflect as default</t>
+  </si>
+  <si>
+    <t>Link Aggregation</t>
+  </si>
+  <si>
+    <t>Port Speed</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>Storage pool</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 all flash storage pools(Name: PublicStoragePool_n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PublicStoragePool_1 default type is dymanic
+PublicStoragePool_1 default type is traditional</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1 All flash pool( (Name: PublicAFP_1 to PublicAFP_n).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;default paratmer= dymanic&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Try to use 1/4 of the disks on the system for each of the pool. The other 1/2 left will be used as hot spare and reserved for expanding or creating new pool in a test case steps
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 hybrid storage pools(Name: PublicStoragePool_n),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PublicStoragePool_1 default type is dymanic
+PublicStoragePool_1 default type is traditional</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1 All flash pool( (Name: PublicAFP_1 to PublicAFP_n).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;default paratmer= dymanic&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Try to use 1/4 of the disks on the system for each of the pool. The other 1/2 left will be used as hot spare and reserved for expanding or creating new pool in a test case steps
+</t>
+    </r>
+  </si>
+  <si>
+    <t>FAST VP</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>FAST Cache</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Disks</t>
+  </si>
+  <si>
+    <t>R1/0:  1+1 
+R5:  4+1
+R6:  6+2
+Disk type should be determind according to the pool policy: using 1/4 of the disks on the system for a pool</t>
+  </si>
+  <si>
+    <t>Utilizaton</t>
+  </si>
+  <si>
+    <t>LUN Group</t>
+  </si>
+  <si>
+    <t>2 (Name: 
+PublicLUNGroup_1_&lt;suffix&gt;, PublicLUNGroup_2_&lt;suffix&gt;)
+2 lungroups in 1 All flash pool, 
+1 is ILC enabled and 1 is ILC disabled.
+ (Name: PublicLUNGroupAFP_ILCEnabled_n_&lt;suffix&gt;
+PublicLUNGroupAFP_ILCDisabled_n_&lt;suffix&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 (Name: 
+PublicLUNGroup_1_&lt;suffix&gt;, PublicLUNGroup_2_&lt;suffix&gt;)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 lungroups in 1 All flash pool, 
+1 is ILC enabled and 1 is ILC disabled.
+ (Name: PublicLUNGroupAFP_ILCEnabled_n_&lt;suffix&gt;
+PublicLUNGroupAFP_ILCDisabled_n_&lt;suffix&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>LUN in Group</t>
+  </si>
+  <si>
+    <t>10 Public LUNs in every PublicLUNGroup (Name: LUNGroup_1_&lt;suffix&gt;_LUN_n)
+&lt;parameter&gt; default Thick
+&lt;parameter&gt; default 20G
+10 Public LUN in PublicLUNGroup_1 (Name: LUNGroup_2_&lt;suffix&gt;_LUN_n)
+&lt;parameter&gt; default Thin
+&lt;parameter&gt; default 20G
+5 LUNs in each PublicLUNGroupAFP (Name: LUNGroupAFP_ILCEnabled_n_&lt;suffix&gt;_LUN_i
+LUNGroupAFP_ILCDisabled_n_&lt;suffix&gt;_LUN_i)
+100% Thin
+&lt;parameter&gt; default 20G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Public LUNs in every PublicLUNGroup (Name: LUNGroup_1_&lt;suffix&gt;_LUN_n)
+&lt;parameter&gt; default Thick
+&lt;parameter&gt; default 20G
+10 Public LUN in PublicLUNGroup_1 (Name: LUNGroup_2_&lt;suffix&gt;_LUN_n)
+&lt;parameter&gt; default Thin
+&lt;parameter&gt; default 20G
+5 LUNs in each PublicLUNGroupAFP (Name: LUNGroupAFP_ILCEnabled_n_&lt;suffix&gt;_LUN_i
+LUNGroupAFP_ILCDisabled_n_&lt;suffix&gt;_LUN_i)
+100% Thin
+&lt;parameter&gt; default 20G
+</t>
+  </si>
+  <si>
+    <t>Standalone LUN</t>
+  </si>
+  <si>
+    <t>20 Public luns
+(Name: Public_LUN_i_n_&lt;suffix&gt;)
+&lt;parameter&gt; default Thin
+&lt;parameter&gt; default 20G
+1&lt;= i &lt;=4
+1&lt;= n &lt;=5
+All flash Pool LUNs:
+10 luns in 1 all flash pool, 
+(Name: Public_LUN_AFP_ILCEnabled_i_&lt;suffix&gt;
+Public_LUN_AFP_ILCDisabled_i_&lt;suffix&gt;
+)
+1&lt;= i &lt;=5
+100% Thin
+&lt;parameter&gt; default 100G
+50% ALL flash pool lun ILC enable
+50% ALL flash pool lun ILC Disable</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;)
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;) in AFP
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin, thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;)
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;) in AFP
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin, thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <t>VMFS-3</t>
+  </si>
+  <si>
+    <t>VMFS-5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 Public, 4 groups
+6 on each pool(Name: PublicVMFS_pooli_thin_n_&lt;suffix&gt;
+PublicVMFS_pooli_thick_n_&lt;suffix&gt;
+)
+&lt;parameter&gt; default 200G
+50% Thin
+1&lt;= i &lt;=2
+1&lt;= n &lt;=3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;) in AFP
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin, thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 Public, 4 groups
+6 on each pool(Name: PublicVMFS_pooli_thin_n_&lt;suffix&gt;
+PublicVMFS_pooli_thick_n_&lt;suffix&gt;
+)
+&lt;parameter&gt; default 200G
+50% Thin
+1&lt;= i &lt;=2
+1&lt;= n &lt;=3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Public (Name: PublicNFSdatastore_n_&lt;suffix&gt;) in AFP
+&lt;parameter&gt; default UFS64
+&lt;parameter&gt; default 200G
+50% thin, thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <t>Protocol Endpoints</t>
+  </si>
+  <si>
+    <t>Capability Profiles</t>
+  </si>
+  <si>
+    <t>2 (Name: CapabilityProfile_n)
+1 on each pool</t>
+  </si>
+  <si>
+    <t>Storage Containers</t>
+  </si>
+  <si>
+    <t>4 Public
+2 Vvol datastore for each CP 
+with 50% File and 50% Block
+(Name: publicVolDatastore_n_&lt;suffix&gt;)
+&lt;parameter&gt; default 100G</t>
+  </si>
+  <si>
+    <t>NAS Server</t>
+  </si>
+  <si>
+    <t>1. Multiprotocl NAS Server: 
+Name: MUPFS_n_&lt;suffix&gt;
+Name Service: DNS,NIS
+Sharing Protocol: SMB, NFS,FTP, SFTP, MultiProtocol Enabled.
+amount:1
+2. CIFS NAS Server:
+Name: CIFS_n_&lt;suffix&gt;
+Name Service: DNS, 
+Sharing Protocol: SMB,FTP, SFTP
+amount:1
+3. NFS NAS Server: 
+Name: NFS_n_&lt;suffix&gt;
+Name Service:LDAP
+Sharing Protocol: NFSV4, FTP, SFTP,Sercure NFS
+Security authority type: Windows AD
+amount:1</t>
+  </si>
+  <si>
+    <t>Access Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A
+</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>CNA ports</t>
+  </si>
+  <si>
+    <t># of network interface per NAS Server</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Default DNS Parameter=Public&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Public: 
+ncc2k8.usd.lab.emc.com
+IPv4
+10.109.254.10
+10.109.254.14
+IPv6
+2620:0:170:75fe::10
+2620:0:170:75fe::14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Private: 
+dmctc.drm.emc.com 
+10.109.82.101 </t>
+    </r>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Default DNS Parameter=Public&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Public
+ncc2k8.usd.lab.emc.com
+ncc2k8-dc1.ncc2k8.usd.lab.emc.com
+10.109.254.17
+ncc2k8-dc2.ncc2k8.usd.lab.emc.com
+10.109.254.18
+Private:
+dmctc.drm.emc.com 
+10.109.82.101 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Default DNS Parameter=Public&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Public
+ncc2k8.usd.lab.emc.com
+ncc2k8-dc1.ncc2k8.usd.lab.emc.com
+10.109.254.17
+ncc2k8-dc2.ncc2k8.usd.lab.emc.com
+10.109.254.18
+Private:
+dmctc.drm.emc.com 
+10.109.82.101 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>yp domain=dur 
+IPv4 server
+10.109.177.170 
+10.109.177.169
+IPv6 server
+2620:0:170:75b1:1dd:1:a6d:b1a9
+2620:0:170:75b1:1dd:1:a6d:b1aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPV4: 10.6.29.120 
+IPV6 : 2620:0:170:428:250:56ff:fe06:1d78
+rootdn: "dc=test,dc=com" </t>
+  </si>
+  <si>
+    <t>CIFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems(Name: TraditionalCIFSFS_n) with the same share names
+&lt;parameter&gt; default 20G
+5 file systems(Name: TransactionalCIFSFS_n) with the same share names
++&lt;parameter&gt; default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200G</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50% thin file system enable ILC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems(Name: TraditionalCIFSFS_n) with the same share names
+&lt;parameter&gt; default 20G
+5 file systems(Name: TransactionalCIFSFS_n) with the same share names
++&lt;parameter&gt; default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200G</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 file systems(Name: TraditionalCIFSFS_n) in AFP with the same share names
+&lt;parameter&gt; default 20G
+2 file systems(Name: TransactionalCIFSFS_n) in AFP with the same share names
++&lt;parameter&gt; default 200G
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+Thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems(Name:TraditionalNFSFS_n) with the same share names
+&lt;parameter&gt; default 20G
+FS are 50% Thin
+Default Access = Read/Write, allow Root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+50% thin FS enable ILC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems(Name:TraditionalNFSFS_n) with the same share names
+&lt;parameter&gt; default 20G
+FS are 50% Thin
+Default Access = Read/Write, allow Root
+5 file systems(Name:TraditionalNFSFS_n) with the same share names
+&lt;parameter&gt; default 20G
+FS are 50% Thin
+Default Access = Read/Write, allow Root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 file systems(Name:TraditionalNFSFS_n) in AFP with the same share names
+&lt;parameter&gt; default 20G
+FS are 50% Thin
+Default Access = Read/Write, allow Root
+2 file systems(Name:TraditionalNFSFS_n) in AFP with the same share names
+&lt;parameter&gt; default 20G
+FS are 50% Thin
+Default Access = Read/Write, allow Root
+Thin FS enable ILC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-Protocol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems (Name: TraditionalMUPFS_n) with the same share names
+&lt;parameter&gt; default 20G
+5 file systems (Name: TransactionalMUPFS_n) with the same share names
+&lt;parameter&gt; default 200G
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+Default Access = Read/Write, allow Root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50% thin FS enable ILC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 file systems (Name: TraditionalMUPFS_n) with the same share names
+&lt;parameter&gt; default 20G
+5 file systems (Name: TransactionalMUPFS_n) with the same share names
+&lt;parameter&gt; default 200G
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+Default Access = Read/Write, allow Root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 file systems (Name: TraditionalMUPFS_n) in AFP with the same share names
+&lt;parameter&gt; default 20G
+2 file systems (Name: TransactionalMUPFS_n) in AFP with the same share names
+&lt;parameter&gt; default 200G
+FS are 50% Thin
+Enable 'Continuous Availability', 'Branch Cache' and 'Offline Availability' by default
+Default Access = Read/Write, allow Root
+Thin FS enable ILC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>FTP/SFTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP enabled                = yes
+SFTP enabled               = yes
+CIFS users enabled         = yes
+Unix users enabled         = yes
+Anonymous user enabled     = yes
+Homedir limitation enabled = yes
+Default home directory     = /
+Welcome message            = Data Migration Soultion Test Environment 
+</t>
+  </si>
+  <si>
+    <t>HOME DIR</t>
+  </si>
+  <si>
+    <t>ncc2k8:huser*:/TraditionalMUPFS_1 :regex:create:022
+ncc2k8:luser*:/TraditionalCIFSFS_1 :regex:create:022</t>
+  </si>
+  <si>
+    <t>Quota</t>
+  </si>
+  <si>
+    <t>filesystems on the Multiprotocl NAS Server:
+TransactionalMUPQuotaFS_n (1&lt;=n&lt;=5)
+========================
+Quota configuration:
+Quota policy: File size
+enforce User Quotas: on 
+                          softquota      hardquota
+                          100 GB         180 GB      
+=====================                                                     
+user Quotas:                
+   /       cifsuser     40 GB         100GB
+   /       cifsuser2   80 GB         100GB
+====================
+Quota Tree:
+   /tree                100 GB        180 GB
+User Quotas on tree:
+enforce User Quotas: on 
+                     softquota      hardquota
+                       100 GB        180 GB  
+users on tree       50 GB         100 GB 
+   /       cifsuser     40 GB         100GB
+   /       cifsuser2   80 GB         100GB</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>NDMP</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Enable
+User: ndmp
+Passwd: Password123!</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>Multi-Tenacy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Configure the Multi-Tenacy for NAS server
+tentant name: PublicTentant1
+used in NAS Server: CIFS NAS Servers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Configure the ASR and PF for NAS server Multi-Tenacy</t>
+    </r>
+  </si>
+  <si>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>Enable on LUNs property in AFP pool</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>1. Enabled default Snap Schedule for each LUN, LUN Groups and VMFS,file system and VMNFS
+2. Create Multi Snaps for each LUN, LUN Groups and VMFS,file system and VMNFS
+Number: 2
+name: ObjectName_Snap_n</t>
+  </si>
+  <si>
+    <t>Rebuild</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Rebalance</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>Dedupe</t>
+  </si>
+  <si>
+    <t>File System QoS</t>
+  </si>
+  <si>
+    <t>Block LUN QoS</t>
+  </si>
+  <si>
+    <t>Enabled on all LUNs, LUNgroups and VMFSs.
+maximum_iops_count =&gt; 3000,
+maximum_kbps_count =&gt; 200000,</t>
+  </si>
+  <si>
+    <t>File System</t>
+  </si>
+  <si>
+    <t>use Vjtree to simulate IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroSoft Exchange </t>
+  </si>
+  <si>
+    <t>use JETSTRESS to simulate IO</t>
+  </si>
+  <si>
+    <t>Oracle \ SQLServer</t>
+  </si>
+  <si>
+    <t>use ORION/SQLIOSIM to simulate IO</t>
+  </si>
+  <si>
+    <t>Webserver</t>
+  </si>
+  <si>
+    <t>use IOMeter to simulate IO (4k, 80% R, 20% W, 100 random)</t>
+  </si>
+  <si>
+    <t>EMC NAS Plugin</t>
+  </si>
+  <si>
+    <t>For Vmware NFS datastore  scenario</t>
+  </si>
+  <si>
+    <t>Copyoffload</t>
+  </si>
+  <si>
+    <t>use copyoffload.exe to simulate IO</t>
+  </si>
+  <si>
+    <t>use wftp?</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>use IOX to simulate application IO</t>
+  </si>
+  <si>
+    <t>luser1-luser20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+luser1-luser20000</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>According to the specific assignment
+Overall:
+• 60% Fully Encrypted
+• 20% System Encrypted only
+• 20% NO ENCRYPTION at all</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1827,8 +3066,81 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1904,6 +3216,53 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,11 +3457,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,12 +3609,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2269,8 +3623,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3550,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3589,36 +5058,36 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="65" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>479</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="66" t="s">
         <v>480</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="65" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="65" t="s">
         <v>483</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -3627,21 +5096,21 @@
       <c r="E3" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="65" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="210">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="65" t="s">
         <v>489</v>
       </c>
       <c r="D4" s="49" t="s">
@@ -3650,10 +5119,10 @@
       <c r="E4" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="66" t="s">
         <v>492</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="65" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3664,6 +5133,806 @@
     <hyperlink ref="F4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.75">
+      <c r="A3" s="76" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108.75" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A6" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="360" customHeight="1">
+      <c r="A7" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="229.5" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A11" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51">
+      <c r="A13" s="84" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A14" s="84" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="153">
+      <c r="A17" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="A19" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="255" customHeight="1">
+      <c r="A20" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="80" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+    </row>
+    <row r="22" spans="1:3" ht="89.25">
+      <c r="A22" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A23" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A24" s="88" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>543</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="127.5">
+      <c r="A25" s="84" t="s">
+        <v>544</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A27" s="84" t="s">
+        <v>548</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A28" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="89.25" customHeight="1">
+      <c r="A29" s="89" t="s">
+        <v>552</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="229.5" customHeight="1">
+      <c r="A30" s="89" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="242.25">
+      <c r="A31" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25.5">
+      <c r="A32" s="80" t="s">
+        <v>558</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>559</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36.75">
+      <c r="A34" s="80" t="s">
+        <v>562</v>
+      </c>
+      <c r="B34" s="91">
+        <v>1</v>
+      </c>
+      <c r="C34" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="80" t="s">
+        <v>563</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A36" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A37" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="A38" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="242.25" customHeight="1">
+      <c r="A39" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="140.25" customHeight="1">
+      <c r="A40" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A41" s="80" t="s">
+        <v>572</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A42" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="B42" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A43" s="80" t="s">
+        <v>577</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A44" s="80" t="s">
+        <v>580</v>
+      </c>
+      <c r="B44" s="96" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="178.5" customHeight="1">
+      <c r="A45" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="B45" s="96" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A46" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="B46" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" s="96" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="A47" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="B47" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="76.5" customHeight="1">
+      <c r="A48" s="80" t="s">
+        <v>587</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>589</v>
+      </c>
+      <c r="C48" s="98" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="80" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>588</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>588</v>
+      </c>
+      <c r="C50" s="97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="331.5" customHeight="1">
+      <c r="A51" s="99" t="s">
+        <v>592</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>593</v>
+      </c>
+      <c r="C51" s="100" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="A52" s="84" t="s">
+        <v>594</v>
+      </c>
+      <c r="B52" s="97" t="s">
+        <v>588</v>
+      </c>
+      <c r="C52" s="97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="A53" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="98" t="s">
+        <v>588</v>
+      </c>
+      <c r="C53" s="98" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="A54" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="B54" s="98" t="s">
+        <v>596</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A55" s="101" t="s">
+        <v>597</v>
+      </c>
+      <c r="B55" s="98" t="s">
+        <v>598</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="89" t="s">
+        <v>599</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="89" t="s">
+        <v>600</v>
+      </c>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="89" t="s">
+        <v>601</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>532</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="89" t="s">
+        <v>603</v>
+      </c>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+    </row>
+    <row r="61" spans="1:3" ht="24.75">
+      <c r="A61" s="89" t="s">
+        <v>604</v>
+      </c>
+      <c r="B61" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="178.5" customHeight="1">
+      <c r="A62" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>606</v>
+      </c>
+      <c r="C62" s="103" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="A63" s="104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B63" s="105" t="s">
+        <v>608</v>
+      </c>
+      <c r="C63" s="105" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A64" s="104" t="s">
+        <v>609</v>
+      </c>
+      <c r="B64" s="105" t="s">
+        <v>610</v>
+      </c>
+      <c r="C64" s="105" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A65" s="104" t="s">
+        <v>611</v>
+      </c>
+      <c r="B65" s="106" t="s">
+        <v>612</v>
+      </c>
+      <c r="C65" s="106" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1">
+      <c r="A66" s="104" t="s">
+        <v>613</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>614</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A67" s="104" t="s">
+        <v>615</v>
+      </c>
+      <c r="B67" s="105" t="s">
+        <v>616</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1">
+      <c r="A68" s="104" t="s">
+        <v>617</v>
+      </c>
+      <c r="B68" s="105" t="s">
+        <v>618</v>
+      </c>
+      <c r="C68" s="105" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1">
+      <c r="A69" s="104" t="s">
+        <v>580</v>
+      </c>
+      <c r="B69" s="105" t="s">
+        <v>619</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1">
+      <c r="A70" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="B70" s="106" t="s">
+        <v>621</v>
+      </c>
+      <c r="C70" s="106" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="25.5">
+      <c r="A71" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="B71" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" s="98" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="63.75">
+      <c r="A72" s="104" t="s">
+        <v>624</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>625</v>
+      </c>
+      <c r="C72" s="98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5329,7 +7598,7 @@
       <c r="E2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>155</v>
       </c>
       <c r="G2" t="s">
@@ -5352,7 +7621,7 @@
       <c r="E3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="69" t="s">
         <v>160</v>
       </c>
       <c r="G3" t="s">
@@ -5375,7 +7644,7 @@
       <c r="E4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="68" t="s">
         <v>164</v>
       </c>
       <c r="G4" t="s">
@@ -6292,7 +8561,7 @@
       <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="70" t="s">
         <v>294</v>
       </c>
       <c r="D3" s="46" t="s">
@@ -6306,7 +8575,7 @@
       <c r="B4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="45" t="s">
         <v>143</v>
       </c>

--- a/microblog/app/static/Uploads/data.xlsx
+++ b/microblog/app/static/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Special setup" sheetId="9" r:id="rId9"/>
     <sheet name="Standard TB" sheetId="11" r:id="rId10"/>
     <sheet name="Default configuration" sheetId="12" r:id="rId11"/>
+    <sheet name="Return List" sheetId="13" r:id="rId12"/>
+    <sheet name="AD User" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -107,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="680">
   <si>
     <t>Name</t>
   </si>
@@ -568,9 +570,6 @@
   </si>
   <si>
     <t>Jingrong</t>
-  </si>
-  <si>
-    <t>10.109.104.10-12,25-26 48-51</t>
   </si>
   <si>
     <t>mask=255.255.255.0-  gw: 10.109.104.1- vlan=404</t>
@@ -919,39 +918,15 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Name/IP</t>
-  </si>
-  <si>
-    <t>IP V4</t>
-  </si>
-  <si>
-    <t>IPV6</t>
-  </si>
-  <si>
-    <t>AD1</t>
-  </si>
-  <si>
     <t>ncc2k8.usd.lab.emc.com</t>
   </si>
   <si>
-    <t>10.109.254.10/14</t>
-  </si>
-  <si>
-    <t>2620:0:170:75fe::10/14</t>
-  </si>
-  <si>
     <t>private AD</t>
   </si>
   <si>
     <t>dmctc.drm.lab.emc.com</t>
   </si>
   <si>
-    <t>10.244.116.83</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
     <t>NIS1</t>
   </si>
   <si>
@@ -970,9 +945,6 @@
     <t>10.109.177.169/170</t>
   </si>
   <si>
-    <t>2620:0:170:75b1:1dd:1:a6d:b1a9/b1aa</t>
-  </si>
-  <si>
     <t>NTP</t>
   </si>
   <si>
@@ -1087,9 +1059,6 @@
     <t>Thunderhe adX 4-Port 1GBase-T SLIC2.0 Xcede</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone together </t>
-  </si>
-  <si>
     <t>Reid Yang</t>
   </si>
   <si>
@@ -1121,31 +1090,31 @@
   </si>
   <si>
     <t>SanBlaze Type</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SanBlaze IP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SanBlaze Port</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>User Name</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>vlun</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Sanblaze</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
@@ -2928,6 +2897,218 @@
 • 60% Fully Encrypted
 • 20% System Encrypted only
 • 20% NO ENCRYPTION at all</t>
+  </si>
+  <si>
+    <t>TestSet Name</t>
+  </si>
+  <si>
+    <t>Return Already</t>
+  </si>
+  <si>
+    <t>Return in Future</t>
+  </si>
+  <si>
+    <t>REST VNXe Unified Upgrade</t>
+  </si>
+  <si>
+    <t>CLI VNXe Unified Upgrade</t>
+  </si>
+  <si>
+    <t>Tang,Bo</t>
+  </si>
+  <si>
+    <t>Unisphere VNXe Unified Upgrade</t>
+  </si>
+  <si>
+    <t>Tang Bo</t>
+  </si>
+  <si>
+    <t>Yan,Jessie</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>OB-D1129</t>
+  </si>
+  <si>
+    <t>10.109.82.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109.104.10-12,25-26 </t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>10.244.180.26</t>
+  </si>
+  <si>
+    <t>ISCSI File</t>
+  </si>
+  <si>
+    <t>10.108.16.73</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>10.108.16.70</t>
+  </si>
+  <si>
+    <t>10.244.4.79</t>
+  </si>
+  <si>
+    <t>10.6.29.120</t>
+  </si>
+  <si>
+    <t>10.109.82.22</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>10.109.82.238</t>
+  </si>
+  <si>
+    <t>10.109.82.239</t>
+  </si>
+  <si>
+    <t>10.109.82.240</t>
+  </si>
+  <si>
+    <t>10.109.82.241</t>
+  </si>
+  <si>
+    <t>10.109.82.242</t>
+  </si>
+  <si>
+    <t>10.109.82.243</t>
+  </si>
+  <si>
+    <t>10.244.21.198</t>
+  </si>
+  <si>
+    <t>10.109.140.79</t>
+  </si>
+  <si>
+    <t>10.109.140.107</t>
+  </si>
+  <si>
+    <t>10.109.140.108</t>
+  </si>
+  <si>
+    <t>10.109.140.110</t>
+  </si>
+  <si>
+    <t>10.109.140.111</t>
+  </si>
+  <si>
+    <t>10.109.140.112</t>
+  </si>
+  <si>
+    <t>10.109.140.141</t>
+  </si>
+  <si>
+    <t>10.109.142.29</t>
+  </si>
+  <si>
+    <t>10.245.93.221</t>
+  </si>
+  <si>
+    <t>10.245.93.240</t>
+  </si>
+  <si>
+    <t>10.245.93.139</t>
+  </si>
+  <si>
+    <t>10.245.93.47</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>SWARM</t>
+  </si>
+  <si>
+    <t>SFP</t>
+  </si>
+  <si>
+    <t>Zone together  with OB-D1313</t>
+  </si>
+  <si>
+    <t>Zone together with OB-D1312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFP </t>
+  </si>
+  <si>
+    <t>LAB AD</t>
+  </si>
+  <si>
+    <t>Private AD</t>
+  </si>
+  <si>
+    <t>Domain User</t>
+  </si>
+  <si>
+    <t>DOmain Admin</t>
+  </si>
+  <si>
+    <t>10.109.254.10/14
+2620:0:170:75fe::10/14</t>
+  </si>
+  <si>
+    <t>cifsuser/cifsuser</t>
+  </si>
+  <si>
+    <t>luser1…luser10000 /
+passwd1…passwd10000</t>
+  </si>
+  <si>
+    <t>10.109.177.169/170
+2620:0:170:75b1:1dd:1:a6d:b1a9/b1aa</t>
+  </si>
+  <si>
+    <t>cifsuser/cifsuser 
+administrator/Password123!</t>
+  </si>
+  <si>
+    <t>cifsmig1…cifsmig50/cifs@1…cifsmig@50
+luser1…luser100/passwd1…passwd100
+huser1…huser10/passwd1..passwd10</t>
+  </si>
+  <si>
+    <t>root/Password123!</t>
+  </si>
+  <si>
+    <t>Lab AD</t>
+  </si>
+  <si>
+    <t>domain admin:
+cifsuser/cifsuser
+domain user:
+huser1…huser10/passwd1..passwd10</t>
+  </si>
+  <si>
+    <t>domain admin:
+cifsuser/cifsuser,administrator/Password123!
+domain user:
+cifsmig1…cifsmig50/cifs@1…cifsmig@50
+luser1…luser100/passwd1…passwd100
+huser1…huser10/passwd1..passwd10</t>
+  </si>
+  <si>
+    <t>domain admin:
+root/Password123!
+domain user:
+luser1…luser100/passwd1..passwd100</t>
   </si>
 </sst>
 </file>
@@ -3007,12 +3188,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -3139,8 +3314,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3266,8 +3447,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3368,17 +3555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -3394,19 +3570,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3437,20 +3600,55 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF95B3D7"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3460,9 +3658,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3542,17 +3740,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3560,26 +3755,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,7 +3789,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3609,133 +3804,188 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="19" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4060,12 +4310,16 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4074,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4100,7 +4354,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4112,13 +4366,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4126,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4138,13 +4392,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4152,7 +4406,7 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -4164,7 +4418,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -4175,25 +4429,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -4204,7 +4458,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -4230,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4253,19 +4507,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -4282,7 +4536,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -4297,7 +4551,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -4305,25 +4559,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
@@ -4331,25 +4585,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -4357,25 +4611,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G12" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
         <v>41</v>
@@ -4386,7 +4640,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -4401,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -4412,7 +4666,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -4427,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>41</v>
@@ -4438,7 +4692,7 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -4464,7 +4718,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
@@ -4490,7 +4744,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -4516,7 +4770,7 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -4542,7 +4796,7 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -4565,19 +4819,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4591,19 +4845,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4620,7 +4874,7 @@
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -4643,25 +4897,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -4669,25 +4923,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D24" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -4695,25 +4949,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E25" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -4721,25 +4975,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
@@ -4747,25 +5001,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E27" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
@@ -4773,25 +5027,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
@@ -4799,25 +5053,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="H29" t="s">
         <v>41</v>
@@ -4828,7 +5082,7 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -4854,7 +5108,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
@@ -4880,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
@@ -4903,19 +5157,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E33" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
@@ -4932,7 +5186,7 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C34" t="s">
         <v>84</v>
@@ -4958,7 +5212,7 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
         <v>89</v>
@@ -4984,7 +5238,7 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
@@ -5006,7 +5260,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="systemDetails::storagesystem=APM00153018781" tooltip="JF-D1012" display="https://hubv1.corp.emc.com/services/equipment_management - systemDetails::storagesystem=APM00153018781"/>
   </hyperlinks>
@@ -5036,98 +5290,98 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="149.25" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="G2" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="49" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="409.5">
+      <c r="A3" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="C3" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="149.25" customHeight="1">
-      <c r="A2" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="E3" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="65" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="210">
+      <c r="A4" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="D4" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="E4" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="F4" s="63" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5">
-      <c r="A3" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="G4" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>485</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="210">
-      <c r="A4" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>490</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>491</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>492</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>493</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
@@ -5140,8 +5394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5151,783 +5405,783 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.75">
+      <c r="A3" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108.75" customHeight="1">
+      <c r="A4" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="75" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="C5" s="76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A6" s="75" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="C6" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="360" customHeight="1">
+      <c r="A7" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C7" s="77" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75">
-      <c r="A3" s="76" t="s">
+    <row r="8" spans="1:3" ht="229.5" customHeight="1">
+      <c r="A8" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="108.75" customHeight="1">
-      <c r="A4" s="78" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" s="75" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>504</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C9" s="76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="75" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="B10" s="76" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A11" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B11" s="76" t="s">
         <v>507</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C11" s="76" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A6" s="80" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B12" s="76" t="s">
         <v>509</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C12" s="76" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="360" customHeight="1">
-      <c r="A7" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="82" t="s">
+    <row r="13" spans="1:3" ht="51">
+      <c r="A13" s="79" t="s">
         <v>510</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="B13" s="78" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="229.5" customHeight="1">
-      <c r="A8" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="83" t="s">
+      <c r="C13" s="78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A14" s="79" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="B14" s="76" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="79" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="B15" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" s="79" t="s">
         <v>514</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B16" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="153">
+      <c r="A17" s="75" t="s">
         <v>515</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="B17" s="80" t="s">
         <v>516</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="C17" s="80" t="s">
         <v>517</v>
       </c>
-      <c r="B11" s="81" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" s="75" t="s">
         <v>518</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="B18" s="80" t="s">
         <v>519</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="C18" s="80" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="A19" s="75" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51">
-      <c r="A13" s="84" t="s">
+      <c r="B19" s="81" t="s">
         <v>521</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="C19" s="81" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="255" customHeight="1">
+      <c r="A20" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="B20" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="B14" s="81" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="84" t="s">
+      <c r="C20" s="82" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="B15" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+    </row>
+    <row r="22" spans="1:3" ht="89.25">
+      <c r="A22" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="B16" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="153">
-      <c r="A17" s="80" t="s">
+      <c r="B22" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="C22" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="C17" s="85" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A23" s="83" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
-      <c r="A18" s="80" t="s">
+      <c r="B23" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="C23" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
-      <c r="A19" s="80" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A24" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B24" s="82" t="s">
         <v>532</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C24" s="80" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="255" customHeight="1">
-      <c r="A20" s="80" t="s">
+    <row r="25" spans="1:3" ht="127.5">
+      <c r="A25" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B25" s="80" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="87" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
-      <c r="A21" s="80" t="s">
+      <c r="C25" s="82" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-    </row>
-    <row r="22" spans="1:3" ht="89.25">
-      <c r="A22" s="88" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="79" t="s">
         <v>536</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B26" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A27" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="B27" s="82" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A23" s="88" t="s">
+      <c r="C27" s="82" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="87" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A28" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="B28" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="89.25" customHeight="1">
+      <c r="A29" s="84" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A24" s="88" t="s">
+      <c r="B29" s="82" t="s">
         <v>542</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="C29" s="82" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="229.5" customHeight="1">
+      <c r="A30" s="84" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="127.5">
-      <c r="A25" s="84" t="s">
+      <c r="B30" s="82" t="s">
         <v>544</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="C30" s="82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="242.25">
+      <c r="A31" s="75" t="s">
         <v>545</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="B31" s="78" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="C31" s="78" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25.5">
+      <c r="A32" s="75" t="s">
         <v>547</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B32" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="75" t="s">
+        <v>549</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36.75">
+      <c r="A34" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="B34" s="86">
+        <v>1</v>
+      </c>
+      <c r="C34" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>521</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A36" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A37" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="B37" s="90" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="A38" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="242.25" customHeight="1">
+      <c r="A39" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="140.25" customHeight="1">
+      <c r="A40" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A41" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A42" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A43" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>567</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A44" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>570</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="178.5" customHeight="1">
+      <c r="A45" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>572</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A46" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="A47" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="B47" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C47" s="92" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A27" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A28" s="89" t="s">
-        <v>551</v>
-      </c>
-      <c r="B28" s="87" t="s">
+    <row r="48" spans="1:3" ht="76.5" customHeight="1">
+      <c r="A48" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>578</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="92" t="s">
+        <v>577</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="331.5" customHeight="1">
+      <c r="A51" s="94" t="s">
+        <v>581</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1">
+      <c r="A52" s="79" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>577</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="A53" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="93" t="s">
+        <v>577</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="A54" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A55" s="96" t="s">
+        <v>586</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>587</v>
+      </c>
+      <c r="C55" s="93" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B56" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="87" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="89.25" customHeight="1">
-      <c r="A29" s="89" t="s">
-        <v>552</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="87" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="229.5" customHeight="1">
-      <c r="A30" s="89" t="s">
-        <v>554</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>555</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="242.25">
-      <c r="A31" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="25.5">
-      <c r="A32" s="80" t="s">
-        <v>558</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>559</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="80" t="s">
-        <v>560</v>
-      </c>
-      <c r="B33" s="91" t="s">
+      <c r="C56" s="93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="84" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="84" t="s">
+        <v>590</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>521</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="84" t="s">
+        <v>591</v>
+      </c>
+      <c r="B59" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="84" t="s">
+        <v>592</v>
+      </c>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+    </row>
+    <row r="61" spans="1:3" ht="24.75">
+      <c r="A61" s="84" t="s">
+        <v>593</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="178.5" customHeight="1">
+      <c r="A62" s="84" t="s">
+        <v>594</v>
+      </c>
+      <c r="B62" s="98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C62" s="98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="A63" s="99" t="s">
+        <v>596</v>
+      </c>
+      <c r="B63" s="100" t="s">
+        <v>597</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A64" s="99" t="s">
+        <v>598</v>
+      </c>
+      <c r="B64" s="100" t="s">
+        <v>599</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A65" s="99" t="s">
+        <v>600</v>
+      </c>
+      <c r="B65" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1">
+      <c r="A66" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>603</v>
+      </c>
+      <c r="C66" s="100" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A67" s="99" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="100" t="s">
+        <v>605</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1">
+      <c r="A68" s="99" t="s">
+        <v>606</v>
+      </c>
+      <c r="B68" s="100" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" s="100" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1">
+      <c r="A69" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" s="100" t="s">
+        <v>608</v>
+      </c>
+      <c r="C69" s="100" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1">
+      <c r="A70" s="99" t="s">
+        <v>609</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>610</v>
+      </c>
+      <c r="C70" s="101" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="25.5">
+      <c r="A71" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="91" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="36.75">
-      <c r="A34" s="80" t="s">
-        <v>562</v>
-      </c>
-      <c r="B34" s="91">
-        <v>1</v>
-      </c>
-      <c r="C34" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="A35" s="80" t="s">
-        <v>563</v>
-      </c>
-      <c r="B35" s="92" t="s">
-        <v>532</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A36" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="93" t="s">
-        <v>565</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A37" s="80" t="s">
-        <v>566</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
-      <c r="A38" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="242.25" customHeight="1">
-      <c r="A39" s="80" t="s">
-        <v>569</v>
-      </c>
-      <c r="B39" s="96" t="s">
-        <v>570</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="140.25" customHeight="1">
-      <c r="A40" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="B40" s="96" t="s">
-        <v>571</v>
-      </c>
-      <c r="C40" s="96" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A41" s="80" t="s">
-        <v>572</v>
-      </c>
-      <c r="B41" s="96" t="s">
-        <v>573</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A42" s="80" t="s">
-        <v>544</v>
-      </c>
-      <c r="B42" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="C42" s="96" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A43" s="80" t="s">
-        <v>577</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="C43" s="96" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A44" s="80" t="s">
-        <v>580</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="C44" s="96" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="178.5" customHeight="1">
-      <c r="A45" s="80" t="s">
-        <v>582</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>583</v>
-      </c>
-      <c r="C45" s="96" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A46" s="80" t="s">
-        <v>584</v>
-      </c>
-      <c r="B46" s="96" t="s">
-        <v>585</v>
-      </c>
-      <c r="C46" s="96" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
-      <c r="A47" s="80" t="s">
-        <v>586</v>
-      </c>
-      <c r="B47" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="76.5" customHeight="1">
-      <c r="A48" s="80" t="s">
-        <v>587</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>589</v>
-      </c>
-      <c r="C48" s="98" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="80" t="s">
-        <v>590</v>
-      </c>
-      <c r="B49" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="C49" s="97" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" s="80" t="s">
-        <v>591</v>
-      </c>
-      <c r="B50" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="C50" s="97" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="331.5" customHeight="1">
-      <c r="A51" s="99" t="s">
-        <v>592</v>
-      </c>
-      <c r="B51" s="100" t="s">
-        <v>593</v>
-      </c>
-      <c r="C51" s="100" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
-      <c r="A52" s="84" t="s">
-        <v>594</v>
-      </c>
-      <c r="B52" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="C52" s="97" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="A53" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>588</v>
-      </c>
-      <c r="C53" s="98" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="A54" s="84" t="s">
-        <v>595</v>
-      </c>
-      <c r="B54" s="98" t="s">
-        <v>596</v>
-      </c>
-      <c r="C54" s="98" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A55" s="101" t="s">
-        <v>597</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>598</v>
-      </c>
-      <c r="C55" s="98" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="89" t="s">
-        <v>599</v>
-      </c>
-      <c r="B56" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="89" t="s">
-        <v>600</v>
-      </c>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="89" t="s">
-        <v>601</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>532</v>
-      </c>
-      <c r="C58" s="98" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="89" t="s">
-        <v>602</v>
-      </c>
-      <c r="B59" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="89" t="s">
-        <v>603</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-    </row>
-    <row r="61" spans="1:3" ht="24.75">
-      <c r="A61" s="89" t="s">
-        <v>604</v>
-      </c>
-      <c r="B61" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178.5" customHeight="1">
-      <c r="A62" s="89" t="s">
-        <v>605</v>
-      </c>
-      <c r="B62" s="103" t="s">
-        <v>606</v>
-      </c>
-      <c r="C62" s="103" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
-      <c r="A63" s="104" t="s">
-        <v>607</v>
-      </c>
-      <c r="B63" s="105" t="s">
-        <v>608</v>
-      </c>
-      <c r="C63" s="105" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A64" s="104" t="s">
-        <v>609</v>
-      </c>
-      <c r="B64" s="105" t="s">
-        <v>610</v>
-      </c>
-      <c r="C64" s="105" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A65" s="104" t="s">
+      <c r="B71" s="93" t="s">
         <v>611</v>
       </c>
-      <c r="B65" s="106" t="s">
+      <c r="C71" s="93" t="s">
         <v>612</v>
       </c>
-      <c r="C65" s="106" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
-      <c r="A66" s="104" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="63.75">
+      <c r="A72" s="99" t="s">
         <v>613</v>
       </c>
-      <c r="B66" s="105" t="s">
+      <c r="B72" s="93" t="s">
         <v>614</v>
       </c>
-      <c r="C66" s="105" t="s">
+      <c r="C72" s="93" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A67" s="104" t="s">
-        <v>615</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>616</v>
-      </c>
-      <c r="C67" s="105" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
-      <c r="A68" s="104" t="s">
-        <v>617</v>
-      </c>
-      <c r="B68" s="105" t="s">
-        <v>618</v>
-      </c>
-      <c r="C68" s="105" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
-      <c r="A69" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="B69" s="105" t="s">
-        <v>619</v>
-      </c>
-      <c r="C69" s="105" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1">
-      <c r="A70" s="104" t="s">
-        <v>620</v>
-      </c>
-      <c r="B70" s="106" t="s">
-        <v>621</v>
-      </c>
-      <c r="C70" s="106" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="25.5">
-      <c r="A71" s="104" t="s">
-        <v>572</v>
-      </c>
-      <c r="B71" s="98" t="s">
-        <v>622</v>
-      </c>
-      <c r="C71" s="98" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="63.75">
-      <c r="A72" s="104" t="s">
-        <v>624</v>
-      </c>
-      <c r="B72" s="98" t="s">
-        <v>625</v>
-      </c>
-      <c r="C72" s="98" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5936,12 +6190,380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="107" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>619</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>619</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="108" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="108" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="121" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>666</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="121" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>674</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="121" t="s">
+        <v>668</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>673</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5952,1183 +6574,2106 @@
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D4" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D5" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="H5" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="D6" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="D7" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="49" t="s">
+      <c r="D8" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="D9" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D10" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="B11" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="D11" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="B14" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="D14" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49" t="s">
+      <c r="B15" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="D15" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="B16" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="D16" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="49" t="s">
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A18" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="49" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="49" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>413</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="48" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="E25" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C19" s="49" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="49" t="s">
+      <c r="D28" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="49" t="s">
+      <c r="F28" s="48"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="49" t="s">
+      <c r="D29" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C21" s="49" t="s">
+      <c r="F29" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>421</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>422</v>
-      </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>422</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>422</v>
-      </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" s="51" t="s">
+      <c r="G29" s="46"/>
+      <c r="H29" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="G30" s="49"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
+      <c r="D30" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="F31" s="53"/>
+        <v>415</v>
+      </c>
+      <c r="F31" s="50"/>
       <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H31" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="48"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E42" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>412</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" s="51" t="s">
+      <c r="F42" s="48"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>412</v>
-      </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="49"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C35" s="51" t="s">
+      <c r="D45" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A46" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="D35" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E35" s="51" t="s">
+      <c r="B46" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>437</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="49"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="49"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F41" s="51"/>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="51" t="s">
-        <v>391</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A46" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>446</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H46" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H47" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H48" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H49" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H50" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H51" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H52" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H53" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H54" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H55" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="18" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H56" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H57" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="18" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H58" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="18" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H59" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="18" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H60" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="18" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
+      <c r="H61" s="114" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>628</v>
+      </c>
+      <c r="B62" t="s">
+        <v>629</v>
+      </c>
+      <c r="C62" t="s">
+        <v>630</v>
+      </c>
+      <c r="D62" t="s">
+        <v>631</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>628</v>
+      </c>
+      <c r="B63" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" t="s">
+        <v>632</v>
+      </c>
+      <c r="D63" t="s">
+        <v>631</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>633</v>
+      </c>
+      <c r="B64" t="s">
+        <v>629</v>
+      </c>
+      <c r="C64" t="s">
+        <v>634</v>
+      </c>
+      <c r="D64" t="s">
+        <v>631</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>628</v>
+      </c>
+      <c r="B65" t="s">
+        <v>629</v>
+      </c>
+      <c r="C65" t="s">
+        <v>635</v>
+      </c>
+      <c r="D65" t="s">
+        <v>631</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>628</v>
+      </c>
+      <c r="B66" t="s">
+        <v>629</v>
+      </c>
+      <c r="C66" t="s">
+        <v>636</v>
+      </c>
+      <c r="D66" t="s">
+        <v>631</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>633</v>
+      </c>
+      <c r="B67" t="s">
+        <v>629</v>
+      </c>
+      <c r="C67" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E67" t="s">
+        <v>317</v>
+      </c>
+      <c r="H67" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>633</v>
+      </c>
+      <c r="B68" t="s">
+        <v>629</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>631</v>
+      </c>
+      <c r="E68" t="s">
+        <v>317</v>
+      </c>
+      <c r="H68" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>628</v>
+      </c>
+      <c r="B69" t="s">
+        <v>629</v>
+      </c>
+      <c r="C69" t="s">
+        <v>637</v>
+      </c>
+      <c r="D69" t="s">
+        <v>631</v>
+      </c>
+      <c r="E69" t="s">
+        <v>311</v>
+      </c>
+      <c r="H69" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>638</v>
+      </c>
+      <c r="B70" t="s">
+        <v>629</v>
+      </c>
+      <c r="C70" t="s">
+        <v>639</v>
+      </c>
+      <c r="D70" t="s">
+        <v>631</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>638</v>
+      </c>
+      <c r="B71" t="s">
+        <v>629</v>
+      </c>
+      <c r="C71" t="s">
+        <v>640</v>
+      </c>
+      <c r="D71" t="s">
+        <v>631</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>628</v>
+      </c>
+      <c r="B72" t="s">
+        <v>629</v>
+      </c>
+      <c r="C72" t="s">
+        <v>641</v>
+      </c>
+      <c r="D72" t="s">
+        <v>631</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>628</v>
+      </c>
+      <c r="B73" t="s">
+        <v>629</v>
+      </c>
+      <c r="C73" t="s">
+        <v>642</v>
+      </c>
+      <c r="D73" t="s">
+        <v>631</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>628</v>
+      </c>
+      <c r="B74" t="s">
+        <v>629</v>
+      </c>
+      <c r="C74" t="s">
+        <v>643</v>
+      </c>
+      <c r="D74" t="s">
+        <v>631</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>628</v>
+      </c>
+      <c r="B75" t="s">
+        <v>629</v>
+      </c>
+      <c r="C75" t="s">
+        <v>644</v>
+      </c>
+      <c r="D75" t="s">
+        <v>631</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>633</v>
+      </c>
+      <c r="B76" t="s">
+        <v>629</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>631</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>633</v>
+      </c>
+      <c r="B77" t="s">
+        <v>629</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>631</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>633</v>
+      </c>
+      <c r="B78" t="s">
+        <v>629</v>
+      </c>
+      <c r="C78" t="s">
+        <v>645</v>
+      </c>
+      <c r="D78" t="s">
+        <v>631</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>633</v>
+      </c>
+      <c r="B79" t="s">
+        <v>629</v>
+      </c>
+      <c r="C79" t="s">
+        <v>646</v>
+      </c>
+      <c r="D79" t="s">
+        <v>631</v>
+      </c>
+      <c r="E79" t="s">
+        <v>311</v>
+      </c>
+      <c r="H79" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>633</v>
+      </c>
+      <c r="B80" t="s">
+        <v>629</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>631</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>633</v>
+      </c>
+      <c r="B81" t="s">
+        <v>629</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>631</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" t="s">
+        <v>629</v>
+      </c>
+      <c r="C82" t="s">
+        <v>647</v>
+      </c>
+      <c r="D82" t="s">
+        <v>631</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>628</v>
+      </c>
+      <c r="B83" t="s">
+        <v>629</v>
+      </c>
+      <c r="C83" t="s">
+        <v>648</v>
+      </c>
+      <c r="D83" t="s">
+        <v>631</v>
+      </c>
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>628</v>
+      </c>
+      <c r="B84" t="s">
+        <v>629</v>
+      </c>
+      <c r="C84" t="s">
+        <v>649</v>
+      </c>
+      <c r="D84" t="s">
+        <v>631</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>633</v>
+      </c>
+      <c r="B85" t="s">
+        <v>629</v>
+      </c>
+      <c r="C85" t="s">
+        <v>650</v>
+      </c>
+      <c r="D85" t="s">
+        <v>631</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>633</v>
+      </c>
+      <c r="B86" t="s">
+        <v>629</v>
+      </c>
+      <c r="C86" t="s">
+        <v>651</v>
+      </c>
+      <c r="D86" t="s">
+        <v>631</v>
+      </c>
+      <c r="E86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>628</v>
+      </c>
+      <c r="B87" t="s">
+        <v>629</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>631</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>633</v>
+      </c>
+      <c r="B88" t="s">
+        <v>629</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" t="s">
+        <v>631</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>633</v>
+      </c>
+      <c r="B89" t="s">
+        <v>629</v>
+      </c>
+      <c r="C89" t="s">
+        <v>652</v>
+      </c>
+      <c r="D89" t="s">
+        <v>631</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>633</v>
+      </c>
+      <c r="B90" t="s">
+        <v>629</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>631</v>
+      </c>
+      <c r="E90" t="s">
+        <v>317</v>
+      </c>
+      <c r="H90" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>633</v>
+      </c>
+      <c r="B91" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>631</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>633</v>
+      </c>
+      <c r="B92" t="s">
+        <v>629</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>631</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>633</v>
+      </c>
+      <c r="B93" t="s">
+        <v>629</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" t="s">
+        <v>631</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>633</v>
+      </c>
+      <c r="B94" t="s">
+        <v>629</v>
+      </c>
+      <c r="C94" t="s">
+        <v>653</v>
+      </c>
+      <c r="D94" t="s">
+        <v>631</v>
+      </c>
+      <c r="E94" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>633</v>
+      </c>
+      <c r="B95" t="s">
+        <v>629</v>
+      </c>
+      <c r="C95" t="s">
+        <v>654</v>
+      </c>
+      <c r="D95" t="s">
+        <v>631</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>633</v>
+      </c>
+      <c r="B96" t="s">
+        <v>629</v>
+      </c>
+      <c r="C96" t="s">
+        <v>655</v>
+      </c>
+      <c r="D96" t="s">
+        <v>631</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>633</v>
+      </c>
+      <c r="B97" t="s">
+        <v>629</v>
+      </c>
+      <c r="C97" t="s">
+        <v>656</v>
+      </c>
+      <c r="D97" t="s">
+        <v>631</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="114" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>633</v>
+      </c>
+      <c r="B98" t="s">
+        <v>629</v>
+      </c>
+      <c r="C98" t="s">
+        <v>657</v>
+      </c>
+      <c r="D98" t="s">
+        <v>631</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="114" t="s">
+        <v>660</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7138,7 +8683,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7172,11 +8717,11 @@
       <c r="G1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>462</v>
+      <c r="H1" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
@@ -7193,7 +8738,7 @@
         <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>129</v>
@@ -7201,28 +8746,28 @@
       <c r="G2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>464</v>
+      <c r="H2" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>129</v>
@@ -7230,28 +8775,28 @@
       <c r="G3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>464</v>
+      <c r="H3" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>129</v>
@@ -7259,28 +8804,28 @@
       <c r="G4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>465</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>464</v>
+      <c r="H4" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>133</v>
@@ -7288,11 +8833,11 @@
       <c r="G5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>464</v>
+      <c r="H5" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
@@ -7303,13 +8848,13 @@
         <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>133</v>
@@ -7317,26 +8862,26 @@
       <c r="G6" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58" t="s">
-        <v>464</v>
+      <c r="H6" s="56"/>
+      <c r="I6" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>133</v>
@@ -7344,19 +8889,19 @@
       <c r="G7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>464</v>
+      <c r="H7" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>138</v>
@@ -7368,16 +8913,16 @@
         <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>466</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>464</v>
+        <v>214</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
@@ -7388,7 +8933,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>132</v>
@@ -7400,13 +8945,13 @@
         <v>143</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>464</v>
+        <v>216</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
@@ -7423,7 +8968,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>106</v>
@@ -7431,11 +8976,11 @@
       <c r="G10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>464</v>
+      <c r="H10" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
@@ -7452,81 +8997,81 @@
         <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>464</v>
+        <v>216</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>467</v>
+      <c r="H12" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>467</v>
+      <c r="H13" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G7" r:id="rId2"/>
@@ -7547,13 +9092,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.140625" bestFit="1" customWidth="1"/>
@@ -7593,16 +9139,16 @@
         <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="G2" t="s">
         <v>155</v>
-      </c>
-      <c r="G2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -7610,22 +9156,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>160</v>
-      </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7633,22 +9179,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>164</v>
-      </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7659,19 +9205,19 @@
         <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7679,22 +9225,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7702,22 +9248,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7725,22 +9271,22 @@
         <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7748,22 +9294,22 @@
         <v>97</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7773,14 +9319,14 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7789,17 +9335,17 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>180</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7810,23 +9356,23 @@
         <v>151</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>182</v>
-      </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7836,7 +9382,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7852,28 +9398,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>309</v>
+        <v>296</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
@@ -7884,48 +9430,48 @@
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>188</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>191</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -7936,22 +9482,22 @@
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E4" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>193</v>
-      </c>
       <c r="G4" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -7962,52 +9508,52 @@
         <v>17</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E5" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>195</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E6" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -8060,28 +9606,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
@@ -8092,7 +9638,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="27">
         <v>3</v>
@@ -8104,10 +9650,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -8118,7 +9664,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="27">
         <v>3</v>
@@ -8130,10 +9676,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -8144,7 +9690,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="27">
         <v>3</v>
@@ -8156,14 +9702,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="systemDetails::storagesystem=FNM00124100004" display="https://portal.usd.lab.emc.com/services/equipment_management - systemDetails::storagesystem=FNM00124100004"/>
     <hyperlink ref="B3" r:id="rId2" location="systemDetails::storagesystem=FNM00124400703" display="https://portal.usd.lab.emc.com/services/equipment_management - systemDetails::storagesystem=FNM00124400703"/>
@@ -8175,203 +9721,166 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60">
+      <c r="A2" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C2" s="113" t="s">
+        <v>669</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105">
+      <c r="A3" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C3" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="C5" s="118" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="31" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="31" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8395,10 +9904,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>146</v>
@@ -8407,17 +9916,17 @@
         <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
@@ -8426,13 +9935,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
         <v>132</v>
@@ -8440,66 +9949,66 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
@@ -8515,7 +10024,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8527,208 +10036,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>290</v>
+      <c r="C1" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>293</v>
+      <c r="B2" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="116" t="s">
+        <v>662</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="116" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="116" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45" t="s">
-        <v>296</v>
+      <c r="B5" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="42" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45" t="s">
-        <v>299</v>
+      <c r="C8" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45" t="s">
-        <v>300</v>
+      <c r="B9" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="42" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45" t="s">
-        <v>296</v>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46" t="s">
+      <c r="B11" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45" t="s">
-        <v>296</v>
+      <c r="B12" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45" t="s">
-        <v>303</v>
+      <c r="B14" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45" t="s">
-        <v>303</v>
+      <c r="B15" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45" t="s">
-        <v>299</v>
+      <c r="B16" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/microblog/app/static/Uploads/data.xlsx
+++ b/microblog/app/static/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,11 @@
     <sheet name="Return List" sheetId="13" r:id="rId12"/>
     <sheet name="AD User" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Array!$A$1:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Return List'!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -109,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="687">
   <si>
     <t>Name</t>
   </si>
@@ -3109,6 +3113,27 @@
 root/Password123!
 domain user:
 luser1…luser100/passwd1..passwd100</t>
+  </si>
+  <si>
+    <t>VP-D1056</t>
+  </si>
+  <si>
+    <t>10.109.110.10</t>
+  </si>
+  <si>
+    <t>10.109.110.11</t>
+  </si>
+  <si>
+    <t>10.109.110.12</t>
+  </si>
+  <si>
+    <t>VP-D1065</t>
+  </si>
+  <si>
+    <t>10.109.110.91</t>
+  </si>
+  <si>
+    <t>10.109.110.92</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3685,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3987,6 +4012,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4307,15 +4333,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -4427,55 +4453,55 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" s="125" customFormat="1">
+      <c r="A5" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="125" t="s">
         <v>309</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="125" t="s">
         <v>310</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="125" t="s">
         <v>311</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" s="125" customFormat="1">
+      <c r="A6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4531,107 +4557,107 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" s="125" customFormat="1">
+      <c r="A9" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" s="125" customFormat="1">
+      <c r="A10" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="125" t="s">
         <v>319</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="125" t="s">
         <v>320</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" s="125" customFormat="1">
+      <c r="A11" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="125" t="s">
         <v>326</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" s="125" customFormat="1">
+      <c r="A12" s="125" t="s">
         <v>328</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="125" t="s">
         <v>303</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4661,29 +4687,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" s="125" customFormat="1">
+      <c r="A14" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4713,29 +4739,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" s="125" customFormat="1">
+      <c r="A16" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4765,29 +4791,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" s="125" customFormat="1">
+      <c r="A18" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4843,55 +4869,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" s="125" customFormat="1">
+      <c r="A21" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" s="125" customFormat="1">
+      <c r="A22" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4999,55 +5025,55 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" s="125" customFormat="1">
+      <c r="A27" s="125" t="s">
         <v>357</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="125" t="s">
         <v>358</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="125" t="s">
         <v>359</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="125" t="s">
         <v>360</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" s="125" customFormat="1">
+      <c r="A28" s="125" t="s">
         <v>361</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="125" t="s">
         <v>323</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="125" t="s">
         <v>362</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="125" t="s">
         <v>363</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="125" t="s">
         <v>364</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="125" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5209,25 +5235,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>680</v>
       </c>
       <c r="B35" t="s">
         <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>681</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>682</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>683</v>
       </c>
       <c r="F35" t="s">
         <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
@@ -5235,19 +5261,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
         <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
@@ -5259,7 +5285,57 @@
         <v>41</v>
       </c>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>684</v>
+      </c>
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>685</v>
+      </c>
+      <c r="D38" t="s">
+        <v>686</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A32"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="systemDetails::storagesystem=APM00153018781" tooltip="JF-D1012" display="https://hubv1.corp.emc.com/services/equipment_management - systemDetails::storagesystem=APM00153018781"/>
@@ -6195,7 +6271,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6466,6 +6542,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6562,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9723,8 +9800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10024,7 +10101,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
